--- a/nmadb/501282.xlsx
+++ b/nmadb/501282.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14960"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -163,11 +163,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="###0;###0"/>
+    <numFmt numFmtId="164" formatCode="###0;###0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +219,7 @@
     <font>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -442,7 +443,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -454,7 +455,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -492,7 +493,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -501,9 +502,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -515,9 +513,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -537,9 +532,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -551,68 +543,95 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="62">
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -912,28 +931,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="4"/>
-    <col min="4" max="4" width="18.1640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="8.83203125" style="11"/>
-    <col min="7" max="7" width="8.83203125" style="4"/>
-    <col min="8" max="8" width="9.1640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="4"/>
+    <col min="4" max="4" width="18.140625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="8.85546875" style="11"/>
+    <col min="7" max="7" width="8.85546875" style="4"/>
+    <col min="8" max="8" width="9.140625" style="4" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="5.1640625" customWidth="1"/>
-    <col min="11" max="11" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" customWidth="1"/>
+    <col min="11" max="11" width="35.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -970,7 +989,7 @@
       <c r="A2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="36" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="19">
@@ -979,57 +998,57 @@
       <c r="D2" s="20">
         <v>1</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="41">
         <v>-0.4</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="42">
         <v>0.59</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="43">
         <v>219</v>
       </c>
       <c r="H2" s="18"/>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="23">
+      <c r="J2" s="22">
         <v>1</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="33"/>
+      <c r="L2" s="31"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="19">
         <v>1</v>
       </c>
       <c r="D3" s="20">
         <v>2</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="41">
         <v>-0.59</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="42">
         <v>0.62</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="44">
         <v>433</v>
       </c>
       <c r="H3" s="18"/>
-      <c r="I3" s="42"/>
+      <c r="I3" s="39"/>
       <c r="J3" s="17">
         <v>2</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="33"/>
+      <c r="L3" s="31"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="14" t="s">
@@ -1041,58 +1060,58 @@
       <c r="D4" s="20">
         <v>1</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="41">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="42">
         <v>0.49</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="45">
         <v>119</v>
       </c>
       <c r="H4" s="18"/>
-      <c r="I4" s="28"/>
+      <c r="I4" s="26"/>
       <c r="J4" s="17">
         <v>3</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="33"/>
+      <c r="L4" s="31"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="25"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="18">
         <v>2</v>
       </c>
       <c r="D5" s="20">
         <v>2</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="46">
         <v>-0.42</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="47">
         <v>0.49</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="45">
         <v>115</v>
       </c>
       <c r="H5" s="18"/>
-      <c r="I5" s="28"/>
+      <c r="I5" s="26"/>
       <c r="J5" s="17">
         <v>4</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="33"/>
+      <c r="L5" s="31"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="18">
         <v>2008</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="36" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="12">
@@ -1101,24 +1120,24 @@
       <c r="D6" s="20">
         <v>1</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="42">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="42">
         <v>0.22</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="43">
         <v>110</v>
       </c>
       <c r="H6" s="18"/>
-      <c r="I6" s="30"/>
+      <c r="I6" s="28"/>
       <c r="J6" s="17">
         <v>5</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="K6" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="33"/>
+      <c r="L6" s="31"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="18"/>
@@ -1129,24 +1148,24 @@
       <c r="D7" s="20">
         <v>2</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="46">
         <v>-0.68</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="47">
         <v>0.22</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="45">
         <v>156</v>
       </c>
       <c r="H7" s="18"/>
-      <c r="I7" s="43"/>
+      <c r="I7" s="40"/>
       <c r="J7" s="17">
         <v>6</v>
       </c>
-      <c r="K7" s="39" t="s">
+      <c r="K7" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="33"/>
+      <c r="L7" s="31"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="18"/>
@@ -1154,33 +1173,33 @@
       <c r="C8" s="12">
         <v>3</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="35">
         <v>7</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="37">
         <v>-0.53</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="48">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="37">
         <v>165</v>
       </c>
       <c r="H8" s="18"/>
-      <c r="I8" s="43"/>
+      <c r="I8" s="40"/>
       <c r="J8" s="17">
         <v>7</v>
       </c>
-      <c r="K8" s="39" t="s">
+      <c r="K8" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="33"/>
+      <c r="L8" s="31"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
       <c r="A9" s="18">
         <v>2003</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="36" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="12">
@@ -1189,24 +1208,24 @@
       <c r="D9" s="20">
         <v>1</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="46">
         <v>-0.27</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="42">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="44">
         <v>62</v>
       </c>
       <c r="H9" s="18"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="32">
+      <c r="I9" s="26"/>
+      <c r="J9" s="30">
         <v>8</v>
       </c>
-      <c r="K9" s="39" t="s">
+      <c r="K9" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="33"/>
+      <c r="L9" s="31"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1">
       <c r="A10" s="18"/>
@@ -1217,30 +1236,30 @@
       <c r="D10" s="20">
         <v>3</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="46">
         <v>-0.62</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="47">
         <v>0.63</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="46">
         <v>67</v>
       </c>
       <c r="H10" s="18"/>
-      <c r="I10" s="31"/>
+      <c r="I10" s="29"/>
       <c r="J10" s="17">
         <v>9</v>
       </c>
-      <c r="K10" s="39" t="s">
+      <c r="K10" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="33"/>
+      <c r="L10" s="31"/>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1">
       <c r="A11" s="18">
         <v>2004</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="36" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="12">
@@ -1249,20 +1268,20 @@
       <c r="D11" s="20">
         <v>1</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="46">
         <v>-0.24</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="41">
         <v>0.52</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="44">
         <v>200</v>
       </c>
       <c r="H11" s="18"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1">
       <c r="A12" s="18"/>
@@ -1273,26 +1292,26 @@
       <c r="D12" s="20">
         <v>3</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="46">
         <v>-0.56000000000000005</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="47">
         <v>0.52</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="45">
         <v>207</v>
       </c>
       <c r="H12" s="18"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="33"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="31"/>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1">
       <c r="A13" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="36" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="12">
@@ -1301,22 +1320,22 @@
       <c r="D13" s="20">
         <v>1</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="46">
         <v>-0.17</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="41">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="44">
         <v>199</v>
       </c>
       <c r="H13" s="18"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="34" t="s">
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="L13" s="33"/>
+      <c r="L13" s="31"/>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1">
       <c r="A14" s="18"/>
@@ -1327,26 +1346,26 @@
       <c r="D14" s="20">
         <v>4</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="46">
         <v>-0.57999999999999996</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="47">
         <v>0.59</v>
       </c>
-      <c r="G14" s="39">
+      <c r="G14" s="46">
         <v>393</v>
       </c>
       <c r="H14" s="18"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="18">
         <v>2009</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="36" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="12">
@@ -1355,20 +1374,20 @@
       <c r="D15" s="20">
         <v>1</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="46">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="42">
         <v>0.45</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="45">
         <v>127</v>
       </c>
       <c r="H15" s="19"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="18"/>
@@ -1379,26 +1398,26 @@
       <c r="D16" s="20">
         <v>4</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="46">
         <v>-0.5</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16" s="47">
         <v>0.47</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="45">
         <v>246</v>
       </c>
       <c r="H16" s="19"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="18">
         <v>1999</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="36" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="18">
@@ -1407,20 +1426,20 @@
       <c r="D17" s="20">
         <v>1</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="46">
         <v>-0.4</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="42">
         <v>0.49</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="45">
         <v>30</v>
       </c>
       <c r="H17" s="19"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1">
       <c r="A18" s="18"/>
@@ -1431,26 +1450,26 @@
       <c r="D18" s="20">
         <v>5</v>
       </c>
-      <c r="E18" s="39">
+      <c r="E18" s="46">
         <v>-0.7</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="47">
         <v>0.49</v>
       </c>
-      <c r="G18" s="39">
+      <c r="G18" s="46">
         <v>59</v>
       </c>
       <c r="H18" s="19"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1">
       <c r="A19" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="36" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="18">
@@ -1459,20 +1478,20 @@
       <c r="D19" s="20">
         <v>1</v>
       </c>
-      <c r="E19" s="39">
+      <c r="E19" s="46">
         <v>-0.63</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="42">
         <v>1.08</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="45">
         <v>228</v>
       </c>
       <c r="H19" s="19"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1">
       <c r="A20" s="18"/>
@@ -1483,26 +1502,26 @@
       <c r="D20" s="20">
         <v>5</v>
       </c>
-      <c r="E20" s="39">
+      <c r="E20" s="46">
         <v>-0.89</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20" s="47">
         <v>1.08</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="45">
         <v>231</v>
       </c>
       <c r="H20" s="19"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="36" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="18">
@@ -1511,20 +1530,20 @@
       <c r="D21" s="20">
         <v>1</v>
       </c>
-      <c r="E21" s="39">
+      <c r="E21" s="46">
         <v>-0.13</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="42">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="45">
         <v>133</v>
       </c>
       <c r="H21" s="19"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1">
       <c r="A22" s="18"/>
@@ -1535,26 +1554,26 @@
       <c r="D22" s="20">
         <v>6</v>
       </c>
-      <c r="E22" s="39">
+      <c r="E22" s="46">
         <v>-0.47</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F22" s="47">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="45">
         <v>89</v>
       </c>
       <c r="H22" s="19"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1">
       <c r="A23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="36" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="18">
@@ -1563,20 +1582,20 @@
       <c r="D23" s="20">
         <v>1</v>
       </c>
-      <c r="E23" s="39">
+      <c r="E23" s="46">
         <v>-0.19</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="49">
         <v>0.49</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="45">
         <v>88</v>
       </c>
       <c r="H23" s="19"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="18"/>
@@ -1587,26 +1606,26 @@
       <c r="D24" s="20">
         <v>7</v>
       </c>
-      <c r="E24" s="39">
+      <c r="E24" s="46">
         <v>-0.31</v>
       </c>
-      <c r="F24" s="35">
+      <c r="F24" s="47">
         <v>0.49</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="45">
         <v>86</v>
       </c>
       <c r="H24" s="19"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1">
       <c r="A25" s="18">
         <v>2006</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="36" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="18">
@@ -1615,20 +1634,20 @@
       <c r="D25" s="20">
         <v>1</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E25" s="46">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="42">
         <v>0.5</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="45">
         <v>122</v>
       </c>
       <c r="H25" s="19"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="18"/>
@@ -1639,26 +1658,26 @@
       <c r="D26" s="20">
         <v>8</v>
       </c>
-      <c r="E26" s="39">
+      <c r="E26" s="46">
         <v>-0.49</v>
       </c>
-      <c r="F26" s="35">
+      <c r="F26" s="47">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G26" s="39">
+      <c r="G26" s="46">
         <v>122</v>
       </c>
       <c r="H26" s="19"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1">
       <c r="A27" s="18">
         <v>2006</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="36" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="18">
@@ -1667,20 +1686,20 @@
       <c r="D27" s="20">
         <v>1</v>
       </c>
-      <c r="E27" s="39">
+      <c r="E27" s="46">
         <v>-0.4</v>
       </c>
-      <c r="F27" s="35">
+      <c r="F27" s="47">
         <v>0.62</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="45">
         <v>40</v>
       </c>
       <c r="H27" s="18"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1">
       <c r="A28" s="18"/>
@@ -1691,26 +1710,26 @@
       <c r="D28" s="20">
         <v>8</v>
       </c>
-      <c r="E28" s="39">
+      <c r="E28" s="46">
         <v>-0.6</v>
       </c>
-      <c r="F28" s="35">
+      <c r="F28" s="47">
         <v>0.92</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="45">
         <v>40</v>
       </c>
       <c r="H28" s="18"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="18">
         <v>2008</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="36" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="18">
@@ -1719,50 +1738,50 @@
       <c r="D29" s="20">
         <v>1</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E29" s="46">
         <v>-0.19</v>
       </c>
-      <c r="F29" s="35">
+      <c r="F29" s="47">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="45">
         <v>172</v>
       </c>
       <c r="H29" s="18"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1">
       <c r="A30" s="18"/>
-      <c r="B30" s="29"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="18">
         <v>14</v>
       </c>
       <c r="D30" s="20">
         <v>8</v>
       </c>
-      <c r="E30" s="39">
+      <c r="E30" s="46">
         <v>-0.42</v>
       </c>
-      <c r="F30" s="35">
+      <c r="F30" s="47">
         <v>0.54</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="45">
         <v>170</v>
       </c>
       <c r="H30" s="18"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1">
       <c r="A31" s="18">
         <v>2008</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="36" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="20">
@@ -1771,50 +1790,50 @@
       <c r="D31" s="20">
         <v>1</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E31" s="46">
         <v>-0.34</v>
       </c>
-      <c r="F31" s="35">
+      <c r="F31" s="47">
         <v>0.83</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="45">
         <v>204</v>
       </c>
       <c r="H31" s="18"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="18"/>
-      <c r="B32" s="29"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="20">
         <v>15</v>
       </c>
       <c r="D32" s="20">
         <v>9</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="41">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="F32" s="35">
+      <c r="F32" s="47">
         <v>0.82</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="45">
         <v>205</v>
       </c>
       <c r="H32" s="18"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1">
       <c r="A33" s="18">
         <v>2008</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="36" t="s">
         <v>30</v>
       </c>
       <c r="C33" s="20">
@@ -1823,272 +1842,272 @@
       <c r="D33" s="20">
         <v>1</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E33" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="35" t="s">
+      <c r="F33" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="45">
         <v>393</v>
       </c>
       <c r="H33" s="18"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="18"/>
-      <c r="B34" s="29"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="20">
         <v>16</v>
       </c>
       <c r="D34" s="18">
         <v>9</v>
       </c>
-      <c r="E34" s="35" t="s">
+      <c r="E34" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="35" t="s">
+      <c r="F34" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="50">
         <v>398</v>
       </c>
       <c r="H34" s="18"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="18"/>
       <c r="B35" s="8"/>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="18"/>
-      <c r="B36" s="39"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
-      <c r="E36" s="39"/>
+      <c r="E36" s="36"/>
       <c r="F36" s="21"/>
-      <c r="G36" s="39"/>
+      <c r="G36" s="36"/>
       <c r="H36" s="18"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="18"/>
-      <c r="B37" s="39"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="20"/>
       <c r="D37" s="18"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="18"/>
-      <c r="B38" s="29"/>
+      <c r="B38" s="27"/>
       <c r="C38" s="20"/>
       <c r="D38" s="18"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="18"/>
-      <c r="B39" s="29"/>
+      <c r="B39" s="27"/>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
       <c r="E39" s="21"/>
-      <c r="F39" s="35"/>
+      <c r="F39" s="33"/>
       <c r="G39" s="19"/>
       <c r="H39" s="18"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="18"/>
-      <c r="B40" s="39"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="20"/>
       <c r="D40" s="18"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="18"/>
-      <c r="B41" s="39"/>
+      <c r="B41" s="36"/>
       <c r="C41" s="20"/>
       <c r="D41" s="18"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="18"/>
-      <c r="B42" s="29"/>
+      <c r="B42" s="27"/>
       <c r="C42" s="18"/>
       <c r="D42" s="20"/>
       <c r="E42" s="21"/>
-      <c r="F42" s="35"/>
+      <c r="F42" s="33"/>
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="18"/>
-      <c r="B43" s="39"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
       <c r="G43" s="18"/>
       <c r="H43" s="19"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="18"/>
-      <c r="B44" s="39"/>
+      <c r="B44" s="36"/>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
       <c r="G44" s="18"/>
       <c r="H44" s="19"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="18"/>
-      <c r="B45" s="29"/>
+      <c r="B45" s="27"/>
       <c r="C45" s="18"/>
       <c r="D45" s="20"/>
       <c r="E45" s="21"/>
-      <c r="F45" s="35"/>
+      <c r="F45" s="33"/>
       <c r="G45" s="19"/>
       <c r="H45" s="19"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="18"/>
-      <c r="B46" s="36"/>
+      <c r="B46" s="34"/>
       <c r="C46" s="18"/>
       <c r="H46" s="19"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="18"/>
-      <c r="B47" s="36"/>
+      <c r="B47" s="34"/>
       <c r="C47" s="18"/>
       <c r="H47" s="19"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="18"/>
-      <c r="B48" s="29"/>
+      <c r="B48" s="27"/>
       <c r="C48" s="18"/>
       <c r="D48" s="20"/>
       <c r="E48" s="21"/>
-      <c r="F48" s="35"/>
+      <c r="F48" s="33"/>
       <c r="G48" s="19"/>
       <c r="H48" s="19"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="18"/>
-      <c r="B49" s="36"/>
+      <c r="B49" s="34"/>
       <c r="C49" s="18"/>
       <c r="H49" s="19"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
     </row>
     <row r="50" spans="1:11" ht="15" customHeight="1">
       <c r="A50" s="18"/>
-      <c r="B50" s="29"/>
+      <c r="B50" s="27"/>
       <c r="C50" s="18"/>
       <c r="D50" s="20"/>
       <c r="E50" s="21"/>
-      <c r="F50" s="35"/>
+      <c r="F50" s="33"/>
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="33"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="18"/>
-      <c r="B51" s="36"/>
+      <c r="B51" s="34"/>
       <c r="C51" s="18"/>
       <c r="D51" s="20"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="36"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="34"/>
       <c r="H51" s="19"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="18"/>
-      <c r="B52" s="36"/>
+      <c r="B52" s="34"/>
       <c r="C52" s="18"/>
       <c r="H52" s="19"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
     </row>
     <row r="53" spans="1:11" ht="15" customHeight="1">
       <c r="D53" s="6"/>
@@ -2097,17 +2116,17 @@
       <c r="H53" s="5"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="B54" s="36"/>
+      <c r="B54" s="34"/>
       <c r="C54" s="6"/>
       <c r="H54" s="5"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="B55" s="36"/>
+      <c r="B55" s="34"/>
       <c r="C55" s="6"/>
       <c r="H55" s="5"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="B56" s="36"/>
+      <c r="B56" s="34"/>
       <c r="C56" s="6"/>
       <c r="H56" s="5"/>
     </row>
@@ -2119,18 +2138,18 @@
       <c r="H57" s="5"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="B58" s="36"/>
+      <c r="B58" s="34"/>
       <c r="H58" s="5"/>
     </row>
     <row r="59" spans="1:11" ht="15" customHeight="1">
-      <c r="B59" s="29"/>
+      <c r="B59" s="27"/>
       <c r="D59" s="6"/>
       <c r="E59" s="10"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="B60" s="36"/>
+      <c r="B60" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2144,12 +2163,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2161,12 +2180,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/nmadb/501282.xlsx
+++ b/nmadb/501282.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofia\Desktop\nmadata\nmadb\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E0344D-971C-4C47-97AB-7C67C7D6F7CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -111,9 +117,6 @@
   </si>
   <si>
     <t>OPTION</t>
-  </si>
-  <si>
-    <t>LITHE</t>
   </si>
   <si>
     <r>
@@ -130,9 +133,6 @@
     </r>
   </si>
   <si>
-    <t>NR</t>
-  </si>
-  <si>
     <t>2006-2007</t>
   </si>
   <si>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0;###0"/>
   </numFmts>
@@ -572,74 +572,77 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="62">
-    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="26" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="28" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="32" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="34" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="36" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="38" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="40" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="42" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="46" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="48" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="50" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="52" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Υπερ-σύνδεση" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση που ακολουθήθηκε" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση που ακολουθήθηκε" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση που ακολουθήθηκε" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση που ακολουθήθηκε" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση που ακολουθήθηκε" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση που ακολουθήθηκε" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση που ακολουθήθηκε" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση που ακολουθήθηκε" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση που ακολουθήθηκε" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση που ακολουθήθηκε" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση που ακολουθήθηκε" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση που ακολουθήθηκε" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση που ακολουθήθηκε" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση που ακολουθήθηκε" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση που ακολουθήθηκε" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση που ακολουθήθηκε" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση που ακολουθήθηκε" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση που ακολουθήθηκε" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση που ακολουθήθηκε" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση που ακολουθήθηκε" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση που ακολουθήθηκε" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση που ακολουθήθηκε" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση που ακολουθήθηκε" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση που ακολουθήθηκε" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση που ακολουθήθηκε" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση που ακολουθήθηκε" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση που ακολουθήθηκε" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση που ακολουθήθηκε" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση που ακολουθήθηκε" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Υπερ-σύνδεση που ακολουθήθηκε" xfId="61" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -931,28 +934,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
+      <selection pane="bottomRight" activeCell="A33" sqref="A33:G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="4"/>
-    <col min="4" max="4" width="18.140625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="8.85546875" style="11"/>
-    <col min="7" max="7" width="8.85546875" style="4"/>
-    <col min="8" max="8" width="9.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="4"/>
+    <col min="4" max="4" width="18.109375" style="4" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" style="11"/>
+    <col min="7" max="7" width="8.88671875" style="4"/>
+    <col min="8" max="8" width="9.109375" style="4" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="5.140625" customWidth="1"/>
-    <col min="11" max="11" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.109375" customWidth="1"/>
+    <col min="11" max="11" width="35.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -982,15 +985,15 @@
       </c>
       <c r="J1" s="7"/>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="19">
         <v>1</v>
@@ -1049,10 +1052,10 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" s="18">
         <v>2</v>
@@ -1309,7 +1312,7 @@
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1">
       <c r="A13" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="36" t="s">
         <v>22</v>
@@ -1418,7 +1421,7 @@
         <v>1999</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="18">
         <v>8</v>
@@ -1467,7 +1470,7 @@
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1">
       <c r="A19" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>24</v>
@@ -1519,7 +1522,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" s="36" t="s">
         <v>25</v>
@@ -1571,7 +1574,7 @@
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1">
       <c r="A23" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>26</v>
@@ -1678,7 +1681,7 @@
         <v>2006</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" s="18">
         <v>13</v>
@@ -1830,27 +1833,13 @@
       <c r="L32" s="31"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1">
-      <c r="A33" s="18">
-        <v>2008</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="20">
-        <v>16</v>
-      </c>
-      <c r="D33" s="20">
-        <v>1</v>
-      </c>
-      <c r="E33" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" s="45">
-        <v>393</v>
-      </c>
+      <c r="A33" s="18"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="45"/>
       <c r="H33" s="18"/>
       <c r="I33" s="31"/>
       <c r="J33" s="31"/>
@@ -1860,21 +1849,11 @@
     <row r="34" spans="1:12">
       <c r="A34" s="18"/>
       <c r="B34" s="27"/>
-      <c r="C34" s="20">
-        <v>16</v>
-      </c>
-      <c r="D34" s="18">
-        <v>9</v>
-      </c>
-      <c r="E34" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" s="50">
-        <v>398</v>
-      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="50"/>
       <c r="H34" s="18"/>
       <c r="I34" s="31"/>
       <c r="J34" s="31"/>
@@ -2163,12 +2142,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2180,12 +2159,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
